--- a/data/bigbrother/bb_additional_data.xlsx
+++ b/data/bigbrother/bb_additional_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alissa/Documents/Grad/DSC 520/dsc520/data/bigbrother/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A6C443-C9C9-134E-B324-9B0764469B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C23ACBF-45CF-684D-820E-422CFEB3E8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="460" windowWidth="15960" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="460" windowWidth="15960" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - contestant_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="596">
   <si>
     <t>first</t>
   </si>
@@ -1805,13 +1805,16 @@
   </si>
   <si>
     <t>first_in_house</t>
+  </si>
+  <si>
+    <t>season_diversity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1822,6 +1825,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1963,7 +1972,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1996,6 +2005,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3157,10 +3169,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F371"/>
+  <dimension ref="A1:G371"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="E320" sqref="E320"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I365" sqref="I365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3170,12 +3182,11 @@
     <col min="3" max="3" width="5.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3194,8 +3205,11 @@
       <c r="F1" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3214,8 +3228,11 @@
       <c r="F2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -3234,8 +3251,11 @@
       <c r="F3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -3254,8 +3274,11 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -3274,8 +3297,11 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -3294,8 +3320,11 @@
       <c r="F6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -3314,8 +3343,11 @@
       <c r="F7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -3334,8 +3366,11 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -3354,8 +3389,11 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -3374,8 +3412,11 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -3394,8 +3435,11 @@
       <c r="F11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -3414,8 +3458,11 @@
       <c r="F12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -3434,8 +3481,11 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -3454,8 +3504,11 @@
       <c r="F14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -3474,8 +3527,11 @@
       <c r="F15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -3494,8 +3550,11 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -3514,8 +3573,11 @@
       <c r="F17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
@@ -3534,8 +3596,11 @@
       <c r="F18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G18" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
@@ -3554,8 +3619,11 @@
       <c r="F19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G19" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3642,11 @@
       <c r="F20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
@@ -3594,8 +3665,11 @@
       <c r="F21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G21" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
@@ -3614,8 +3688,11 @@
       <c r="F22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G22" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
@@ -3634,8 +3711,11 @@
       <c r="F23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
@@ -3654,8 +3734,11 @@
       <c r="F24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
@@ -3674,8 +3757,11 @@
       <c r="F25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G25" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -3694,8 +3780,11 @@
       <c r="F26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
@@ -3714,8 +3803,11 @@
       <c r="F27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G27" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
@@ -3734,8 +3826,11 @@
       <c r="F28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G28" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>62</v>
       </c>
@@ -3754,8 +3849,11 @@
       <c r="F29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G29" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -3774,8 +3872,11 @@
       <c r="F30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G30" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>66</v>
       </c>
@@ -3794,8 +3895,11 @@
       <c r="F31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G31" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>20</v>
       </c>
@@ -3814,8 +3918,11 @@
       <c r="F32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G32" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>69</v>
       </c>
@@ -3834,8 +3941,11 @@
       <c r="F33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G33" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>71</v>
       </c>
@@ -3854,8 +3964,11 @@
       <c r="F34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G34" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>73</v>
       </c>
@@ -3874,8 +3987,11 @@
       <c r="F35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G35" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>75</v>
       </c>
@@ -3894,8 +4010,11 @@
       <c r="F36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G36" s="11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>78</v>
       </c>
@@ -3914,8 +4033,11 @@
       <c r="F37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G37" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>80</v>
       </c>
@@ -3934,8 +4056,11 @@
       <c r="F38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G38" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
@@ -3954,8 +4079,11 @@
       <c r="F39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G39" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>84</v>
       </c>
@@ -3974,8 +4102,11 @@
       <c r="F40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G40" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4125,11 @@
       <c r="F41" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G41" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
@@ -4014,8 +4148,11 @@
       <c r="F42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G42" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>89</v>
       </c>
@@ -4034,8 +4171,11 @@
       <c r="F43" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G43" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>91</v>
       </c>
@@ -4054,8 +4194,11 @@
       <c r="F44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G44" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>93</v>
       </c>
@@ -4074,8 +4217,11 @@
       <c r="F45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G45" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -4094,8 +4240,11 @@
       <c r="F46" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G46" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>97</v>
       </c>
@@ -4114,8 +4263,11 @@
       <c r="F47" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G47" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>99</v>
       </c>
@@ -4134,8 +4286,11 @@
       <c r="F48" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G48" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>101</v>
       </c>
@@ -4154,8 +4309,11 @@
       <c r="F49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G49" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>104</v>
       </c>
@@ -4174,8 +4332,11 @@
       <c r="F50" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G50" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>106</v>
       </c>
@@ -4194,8 +4355,11 @@
       <c r="F51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G51" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>108</v>
       </c>
@@ -4214,8 +4378,11 @@
       <c r="F52" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G52" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>22</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="F53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G53" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>111</v>
       </c>
@@ -4254,8 +4424,11 @@
       <c r="F54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G54" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>113</v>
       </c>
@@ -4274,8 +4447,11 @@
       <c r="F55" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G55" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>115</v>
       </c>
@@ -4294,8 +4470,11 @@
       <c r="F56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G56" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -4314,8 +4493,11 @@
       <c r="F57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G57" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>118</v>
       </c>
@@ -4334,8 +4516,11 @@
       <c r="F58" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G58" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>99</v>
       </c>
@@ -4354,8 +4539,11 @@
       <c r="F59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G59" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>121</v>
       </c>
@@ -4374,8 +4562,11 @@
       <c r="F60" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G60" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>73</v>
       </c>
@@ -4394,8 +4585,11 @@
       <c r="F61" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G61" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>124</v>
       </c>
@@ -4414,8 +4608,11 @@
       <c r="F62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G62" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>126</v>
       </c>
@@ -4434,8 +4631,11 @@
       <c r="F63" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G63" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>129</v>
       </c>
@@ -4454,8 +4654,11 @@
       <c r="F64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G64" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>131</v>
       </c>
@@ -4474,8 +4677,11 @@
       <c r="F65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G65" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>133</v>
       </c>
@@ -4494,8 +4700,11 @@
       <c r="F66" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G66" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>135</v>
       </c>
@@ -4514,8 +4723,11 @@
       <c r="F67" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G67" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>137</v>
       </c>
@@ -4534,8 +4746,11 @@
       <c r="F68" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G68" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>139</v>
       </c>
@@ -4554,8 +4769,11 @@
       <c r="F69" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G69" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>141</v>
       </c>
@@ -4574,8 +4792,11 @@
       <c r="F70" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G70" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>143</v>
       </c>
@@ -4594,8 +4815,11 @@
       <c r="F71" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G71" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>145</v>
       </c>
@@ -4614,8 +4838,11 @@
       <c r="F72" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G72" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>147</v>
       </c>
@@ -4634,8 +4861,11 @@
       <c r="F73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G73" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>69</v>
       </c>
@@ -4654,8 +4884,11 @@
       <c r="F74" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G74" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>150</v>
       </c>
@@ -4674,8 +4907,11 @@
       <c r="F75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G75" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>152</v>
       </c>
@@ -4694,8 +4930,11 @@
       <c r="F76" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G76" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>41</v>
       </c>
@@ -4714,8 +4953,11 @@
       <c r="F77" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G77" s="11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>82</v>
       </c>
@@ -4734,8 +4976,11 @@
       <c r="F78" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G78" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>131</v>
       </c>
@@ -4754,8 +4999,11 @@
       <c r="F79" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G79" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>26</v>
       </c>
@@ -4774,8 +5022,11 @@
       <c r="F80" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G80" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>14</v>
       </c>
@@ -4794,8 +5045,11 @@
       <c r="F81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G81" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>54</v>
       </c>
@@ -4814,8 +5068,11 @@
       <c r="F82" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G82" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>139</v>
       </c>
@@ -4834,8 +5091,11 @@
       <c r="F83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G83" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>135</v>
       </c>
@@ -4854,8 +5114,11 @@
       <c r="F84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G84" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>60</v>
       </c>
@@ -4874,8 +5137,11 @@
       <c r="F85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G85" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>155</v>
       </c>
@@ -4894,8 +5160,11 @@
       <c r="F86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G86" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>106</v>
       </c>
@@ -4914,8 +5183,11 @@
       <c r="F87" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G87" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>118</v>
       </c>
@@ -4934,8 +5206,11 @@
       <c r="F88" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G88" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>108</v>
       </c>
@@ -4954,8 +5229,11 @@
       <c r="F89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G89" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>78</v>
       </c>
@@ -4974,8 +5252,11 @@
       <c r="F90" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G90" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>156</v>
       </c>
@@ -4994,8 +5275,11 @@
       <c r="F91" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G91" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>159</v>
       </c>
@@ -5014,8 +5298,11 @@
       <c r="F92" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G92" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>160</v>
       </c>
@@ -5034,8 +5321,11 @@
       <c r="F93" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G93" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>162</v>
       </c>
@@ -5054,8 +5344,11 @@
       <c r="F94" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G94" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>69</v>
       </c>
@@ -5074,8 +5367,11 @@
       <c r="F95" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G95" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>165</v>
       </c>
@@ -5094,8 +5390,11 @@
       <c r="F96" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G96" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>167</v>
       </c>
@@ -5114,8 +5413,11 @@
       <c r="F97" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G97" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>169</v>
       </c>
@@ -5134,8 +5436,11 @@
       <c r="F98" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G98" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>171</v>
       </c>
@@ -5154,8 +5459,11 @@
       <c r="F99" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G99" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>173</v>
       </c>
@@ -5174,8 +5482,11 @@
       <c r="F100" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G100" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>175</v>
       </c>
@@ -5194,8 +5505,11 @@
       <c r="F101" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G101" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>124</v>
       </c>
@@ -5214,8 +5528,11 @@
       <c r="F102" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G102" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>178</v>
       </c>
@@ -5234,8 +5551,11 @@
       <c r="F103" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G103" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>180</v>
       </c>
@@ -5254,8 +5574,11 @@
       <c r="F104" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G104" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>182</v>
       </c>
@@ -5274,8 +5597,11 @@
       <c r="F105" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G105" s="11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>185</v>
       </c>
@@ -5294,8 +5620,11 @@
       <c r="F106" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G106" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>187</v>
       </c>
@@ -5314,8 +5643,11 @@
       <c r="F107" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G107" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>189</v>
       </c>
@@ -5334,8 +5666,11 @@
       <c r="F108" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G108" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>115</v>
       </c>
@@ -5354,8 +5689,11 @@
       <c r="F109" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G109" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>139</v>
       </c>
@@ -5374,8 +5712,11 @@
       <c r="F110" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G110" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>193</v>
       </c>
@@ -5394,8 +5735,11 @@
       <c r="F111" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G111" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>195</v>
       </c>
@@ -5414,8 +5758,11 @@
       <c r="F112" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G112" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>197</v>
       </c>
@@ -5434,8 +5781,11 @@
       <c r="F113" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G113" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>199</v>
       </c>
@@ -5454,8 +5804,11 @@
       <c r="F114" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G114" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>201</v>
       </c>
@@ -5474,8 +5827,11 @@
       <c r="F115" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G115" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>97</v>
       </c>
@@ -5494,8 +5850,11 @@
       <c r="F116" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G116" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>169</v>
       </c>
@@ -5514,8 +5873,11 @@
       <c r="F117" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G117" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>205</v>
       </c>
@@ -5534,8 +5896,11 @@
       <c r="F118" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G118" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
         <v>207</v>
       </c>
@@ -5554,8 +5919,11 @@
       <c r="F119" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G119" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
         <v>209</v>
       </c>
@@ -5574,8 +5942,11 @@
       <c r="F120" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G120" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
         <v>211</v>
       </c>
@@ -5594,8 +5965,11 @@
       <c r="F121" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G121" s="11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>214</v>
       </c>
@@ -5614,8 +5988,11 @@
       <c r="F122" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G122" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
         <v>216</v>
       </c>
@@ -5634,8 +6011,11 @@
       <c r="F123" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G123" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
         <v>218</v>
       </c>
@@ -5654,8 +6034,11 @@
       <c r="F124" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G124" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
         <v>220</v>
       </c>
@@ -5674,8 +6057,11 @@
       <c r="F125" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G125" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>222</v>
       </c>
@@ -5694,8 +6080,11 @@
       <c r="F126" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G126" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
         <v>95</v>
       </c>
@@ -5714,8 +6103,11 @@
       <c r="F127" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G127" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>133</v>
       </c>
@@ -5734,8 +6126,11 @@
       <c r="F128" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G128" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
         <v>226</v>
       </c>
@@ -5754,8 +6149,11 @@
       <c r="F129" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G129" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>228</v>
       </c>
@@ -5774,8 +6172,11 @@
       <c r="F130" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G130" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
         <v>230</v>
       </c>
@@ -5794,8 +6195,11 @@
       <c r="F131" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G131" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>232</v>
       </c>
@@ -5814,8 +6218,11 @@
       <c r="F132" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G132" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
         <v>234</v>
       </c>
@@ -5834,8 +6241,11 @@
       <c r="F133" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G133" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
         <v>19</v>
       </c>
@@ -5854,8 +6264,11 @@
       <c r="F134" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G134" s="11">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
         <v>115</v>
       </c>
@@ -5874,8 +6287,11 @@
       <c r="F135" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G135" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
         <v>238</v>
       </c>
@@ -5894,8 +6310,11 @@
       <c r="F136" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G136" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
         <v>240</v>
       </c>
@@ -5914,8 +6333,11 @@
       <c r="F137" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G137" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>242</v>
       </c>
@@ -5934,8 +6356,11 @@
       <c r="F138" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G138" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
         <v>244</v>
       </c>
@@ -5954,8 +6379,11 @@
       <c r="F139" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G139" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
         <v>246</v>
       </c>
@@ -5974,8 +6402,11 @@
       <c r="F140" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G140" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
         <v>248</v>
       </c>
@@ -5994,8 +6425,11 @@
       <c r="F141" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G141" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
         <v>228</v>
       </c>
@@ -6014,8 +6448,11 @@
       <c r="F142" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G142" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
         <v>250</v>
       </c>
@@ -6034,8 +6471,11 @@
       <c r="F143" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G143" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
         <v>252</v>
       </c>
@@ -6054,8 +6494,11 @@
       <c r="F144" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G144" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
         <v>254</v>
       </c>
@@ -6074,8 +6517,11 @@
       <c r="F145" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G145" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
         <v>256</v>
       </c>
@@ -6094,8 +6540,11 @@
       <c r="F146" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G146" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
         <v>258</v>
       </c>
@@ -6114,8 +6563,11 @@
       <c r="F147" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G147" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
         <v>94</v>
       </c>
@@ -6134,8 +6586,11 @@
       <c r="F148" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G148" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>262</v>
       </c>
@@ -6154,8 +6609,11 @@
       <c r="F149" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G149" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
         <v>264</v>
       </c>
@@ -6174,8 +6632,11 @@
       <c r="F150" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G150" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
         <v>266</v>
       </c>
@@ -6194,8 +6655,11 @@
       <c r="F151" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G151" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
         <v>268</v>
       </c>
@@ -6214,8 +6678,11 @@
       <c r="F152" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G152" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
         <v>270</v>
       </c>
@@ -6234,8 +6701,11 @@
       <c r="F153" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G153" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
         <v>272</v>
       </c>
@@ -6254,8 +6724,11 @@
       <c r="F154" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G154" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
         <v>141</v>
       </c>
@@ -6274,8 +6747,11 @@
       <c r="F155" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G155" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
         <v>275</v>
       </c>
@@ -6294,8 +6770,11 @@
       <c r="F156" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G156" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
         <v>277</v>
       </c>
@@ -6314,8 +6793,11 @@
       <c r="F157" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G157" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
         <v>278</v>
       </c>
@@ -6334,8 +6816,11 @@
       <c r="F158" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G158" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
         <v>280</v>
       </c>
@@ -6354,8 +6839,11 @@
       <c r="F159" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G159" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
         <v>141</v>
       </c>
@@ -6374,8 +6862,11 @@
       <c r="F160" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G160" s="11">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
         <v>283</v>
       </c>
@@ -6394,8 +6885,11 @@
       <c r="F161" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G161" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
         <v>182</v>
       </c>
@@ -6414,8 +6908,11 @@
       <c r="F162" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G162" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
         <v>19</v>
       </c>
@@ -6434,8 +6931,11 @@
       <c r="F163" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G163" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
         <v>286</v>
       </c>
@@ -6454,8 +6954,11 @@
       <c r="F164" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G164" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
         <v>288</v>
       </c>
@@ -6474,8 +6977,11 @@
       <c r="F165" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G165" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
         <v>242</v>
       </c>
@@ -6494,8 +7000,11 @@
       <c r="F166" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G166" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
         <v>159</v>
       </c>
@@ -6514,8 +7023,11 @@
       <c r="F167" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G167" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
         <v>268</v>
       </c>
@@ -6534,8 +7046,11 @@
       <c r="F168" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G168" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
         <v>290</v>
       </c>
@@ -6554,8 +7069,11 @@
       <c r="F169" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G169" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
         <v>292</v>
       </c>
@@ -6574,8 +7092,11 @@
       <c r="F170" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G170" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
         <v>294</v>
       </c>
@@ -6594,8 +7115,11 @@
       <c r="F171" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G171" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
         <v>296</v>
       </c>
@@ -6614,8 +7138,11 @@
       <c r="F172" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G172" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
         <v>156</v>
       </c>
@@ -6634,8 +7161,11 @@
       <c r="F173" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G173" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
         <v>298</v>
       </c>
@@ -6654,8 +7184,11 @@
       <c r="F174" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G174" s="11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
         <v>211</v>
       </c>
@@ -6674,8 +7207,11 @@
       <c r="F175" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G175" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
         <v>54</v>
       </c>
@@ -6694,8 +7230,11 @@
       <c r="F176" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G176" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
         <v>302</v>
       </c>
@@ -6714,8 +7253,11 @@
       <c r="F177" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G177" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
         <v>304</v>
       </c>
@@ -6734,8 +7276,11 @@
       <c r="F178" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G178" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
         <v>178</v>
       </c>
@@ -6754,8 +7299,11 @@
       <c r="F179" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G179" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>307</v>
       </c>
@@ -6774,8 +7322,11 @@
       <c r="F180" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G180" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
         <v>264</v>
       </c>
@@ -6794,8 +7345,11 @@
       <c r="F181" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G181" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
         <v>309</v>
       </c>
@@ -6814,8 +7368,11 @@
       <c r="F182" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G182" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
         <v>41</v>
       </c>
@@ -6834,8 +7391,11 @@
       <c r="F183" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G183" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
         <v>311</v>
       </c>
@@ -6854,8 +7414,11 @@
       <c r="F184" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G184" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
         <v>131</v>
       </c>
@@ -6874,8 +7437,11 @@
       <c r="F185" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G185" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
         <v>313</v>
       </c>
@@ -6894,8 +7460,11 @@
       <c r="F186" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G186" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
         <v>315</v>
       </c>
@@ -6914,8 +7483,11 @@
       <c r="F187" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G187" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
         <v>317</v>
       </c>
@@ -6934,8 +7506,11 @@
       <c r="F188" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G188" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
         <v>319</v>
       </c>
@@ -6954,8 +7529,11 @@
       <c r="F189" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G189" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
         <v>321</v>
       </c>
@@ -6974,8 +7552,11 @@
       <c r="F190" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G190" s="11">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
         <v>324</v>
       </c>
@@ -6994,8 +7575,11 @@
       <c r="F191" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G191" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>326</v>
       </c>
@@ -7014,8 +7598,11 @@
       <c r="F192" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G192" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
         <v>328</v>
       </c>
@@ -7034,8 +7621,11 @@
       <c r="F193" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G193" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
         <v>329</v>
       </c>
@@ -7054,8 +7644,11 @@
       <c r="F194" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G194" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
         <v>331</v>
       </c>
@@ -7074,8 +7667,11 @@
       <c r="F195" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G195" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
         <v>97</v>
       </c>
@@ -7094,8 +7690,11 @@
       <c r="F196" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G196" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
         <v>334</v>
       </c>
@@ -7114,8 +7713,11 @@
       <c r="F197" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G197" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
         <v>336</v>
       </c>
@@ -7134,8 +7736,11 @@
       <c r="F198" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G198" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
         <v>228</v>
       </c>
@@ -7154,8 +7759,11 @@
       <c r="F199" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G199" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
         <v>339</v>
       </c>
@@ -7174,8 +7782,11 @@
       <c r="F200" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G200" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
         <v>341</v>
       </c>
@@ -7194,8 +7805,11 @@
       <c r="F201" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G201" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
         <v>343</v>
       </c>
@@ -7214,8 +7828,11 @@
       <c r="F202" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G202" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
         <v>345</v>
       </c>
@@ -7234,8 +7851,11 @@
       <c r="F203" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G203" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
         <v>175</v>
       </c>
@@ -7254,8 +7874,11 @@
       <c r="F204" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G204" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
         <v>93</v>
       </c>
@@ -7274,8 +7897,11 @@
       <c r="F205" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G205" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
         <v>349</v>
       </c>
@@ -7294,8 +7920,11 @@
       <c r="F206" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G206" s="11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
         <v>352</v>
       </c>
@@ -7314,8 +7943,11 @@
       <c r="F207" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G207" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
         <v>354</v>
       </c>
@@ -7334,8 +7966,11 @@
       <c r="F208" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G208" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
         <v>356</v>
       </c>
@@ -7354,8 +7989,11 @@
       <c r="F209" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G209" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
         <v>357</v>
       </c>
@@ -7374,8 +8012,11 @@
       <c r="F210" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G210" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
         <v>359</v>
       </c>
@@ -7394,8 +8035,11 @@
       <c r="F211" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G211" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
         <v>29</v>
       </c>
@@ -7414,8 +8058,11 @@
       <c r="F212" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G212" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
         <v>362</v>
       </c>
@@ -7434,8 +8081,11 @@
       <c r="F213" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G213" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
         <v>160</v>
       </c>
@@ -7454,8 +8104,11 @@
       <c r="F214" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G214" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
         <v>258</v>
       </c>
@@ -7474,8 +8127,11 @@
       <c r="F215" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G215" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
         <v>365</v>
       </c>
@@ -7494,8 +8150,11 @@
       <c r="F216" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G216" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
         <v>167</v>
       </c>
@@ -7514,8 +8173,11 @@
       <c r="F217" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G217" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
         <v>4</v>
       </c>
@@ -7534,8 +8196,11 @@
       <c r="F218" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G218" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
         <v>368</v>
       </c>
@@ -7554,8 +8219,11 @@
       <c r="F219" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G219" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
         <v>370</v>
       </c>
@@ -7574,8 +8242,11 @@
       <c r="F220" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G220" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
         <v>372</v>
       </c>
@@ -7594,8 +8265,11 @@
       <c r="F221" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G221" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
         <v>232</v>
       </c>
@@ -7614,8 +8288,11 @@
       <c r="F222" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G222" s="11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
         <v>376</v>
       </c>
@@ -7634,8 +8311,11 @@
       <c r="F223" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G223" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
         <v>378</v>
       </c>
@@ -7654,8 +8334,11 @@
       <c r="F224" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G224" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
         <v>380</v>
       </c>
@@ -7674,8 +8357,11 @@
       <c r="F225" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G225" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
         <v>381</v>
       </c>
@@ -7694,8 +8380,11 @@
       <c r="F226" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G226" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
         <v>383</v>
       </c>
@@ -7714,8 +8403,11 @@
       <c r="F227" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G227" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
         <v>139</v>
       </c>
@@ -7734,8 +8426,11 @@
       <c r="F228" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G228" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
         <v>385</v>
       </c>
@@ -7754,8 +8449,11 @@
       <c r="F229" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G229" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
         <v>387</v>
       </c>
@@ -7774,8 +8472,11 @@
       <c r="F230" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G230" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
         <v>389</v>
       </c>
@@ -7794,8 +8495,11 @@
       <c r="F231" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G231" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
         <v>391</v>
       </c>
@@ -7814,8 +8518,11 @@
       <c r="F232" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G232" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
         <v>393</v>
       </c>
@@ -7834,8 +8541,11 @@
       <c r="F233" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G233" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -7854,8 +8564,11 @@
       <c r="F234" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G234" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
         <v>396</v>
       </c>
@@ -7874,8 +8587,11 @@
       <c r="F235" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G235" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
         <v>242</v>
       </c>
@@ -7894,8 +8610,11 @@
       <c r="F236" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G236" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
         <v>399</v>
       </c>
@@ -7914,8 +8633,11 @@
       <c r="F237" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G237" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
         <v>401</v>
       </c>
@@ -7934,8 +8656,11 @@
       <c r="F238" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G238" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
         <v>29</v>
       </c>
@@ -7954,8 +8679,11 @@
       <c r="F239" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G239" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
         <v>404</v>
       </c>
@@ -7974,8 +8702,11 @@
       <c r="F240" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G240" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
         <v>139</v>
       </c>
@@ -7994,8 +8725,11 @@
       <c r="F241" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G241" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
         <v>406</v>
       </c>
@@ -8014,8 +8748,11 @@
       <c r="F242" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G242" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
         <v>408</v>
       </c>
@@ -8034,8 +8771,11 @@
       <c r="F243" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G243" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
         <v>115</v>
       </c>
@@ -8054,8 +8794,11 @@
       <c r="F244" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G244" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
         <v>95</v>
       </c>
@@ -8074,8 +8817,11 @@
       <c r="F245" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G245" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
         <v>411</v>
       </c>
@@ -8094,8 +8840,11 @@
       <c r="F246" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G246" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
         <v>412</v>
       </c>
@@ -8114,8 +8863,11 @@
       <c r="F247" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G247" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
         <v>414</v>
       </c>
@@ -8134,8 +8886,11 @@
       <c r="F248" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G248" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
         <v>399</v>
       </c>
@@ -8154,8 +8909,11 @@
       <c r="F249" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G249" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
         <v>307</v>
       </c>
@@ -8174,8 +8932,11 @@
       <c r="F250" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G250" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
         <v>416</v>
       </c>
@@ -8194,8 +8955,11 @@
       <c r="F251" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G251" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
         <v>417</v>
       </c>
@@ -8214,8 +8978,11 @@
       <c r="F252" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G252" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="7" t="s">
         <v>419</v>
       </c>
@@ -8234,8 +9001,11 @@
       <c r="F253" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G253" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
         <v>421</v>
       </c>
@@ -8254,8 +9024,11 @@
       <c r="F254" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G254" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="7" t="s">
         <v>422</v>
       </c>
@@ -8274,8 +9047,11 @@
       <c r="F255" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G255" s="11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
         <v>56</v>
       </c>
@@ -8294,8 +9070,11 @@
       <c r="F256" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G256" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="7" t="s">
         <v>425</v>
       </c>
@@ -8314,8 +9093,11 @@
       <c r="F257" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G257" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
         <v>49</v>
       </c>
@@ -8334,8 +9116,11 @@
       <c r="F258" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G258" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="7" t="s">
         <v>428</v>
       </c>
@@ -8354,8 +9139,11 @@
       <c r="F259" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G259" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
         <v>430</v>
       </c>
@@ -8374,8 +9162,11 @@
       <c r="F260" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G260" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="7" t="s">
         <v>432</v>
       </c>
@@ -8394,8 +9185,11 @@
       <c r="F261" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G261" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
         <v>201</v>
       </c>
@@ -8414,8 +9208,11 @@
       <c r="F262" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G262" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="7" t="s">
         <v>99</v>
       </c>
@@ -8434,8 +9231,11 @@
       <c r="F263" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G263" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="7" t="s">
         <v>435</v>
       </c>
@@ -8454,8 +9254,11 @@
       <c r="F264" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G264" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="7" t="s">
         <v>302</v>
       </c>
@@ -8474,8 +9277,11 @@
       <c r="F265" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G265" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
         <v>438</v>
       </c>
@@ -8494,8 +9300,11 @@
       <c r="F266" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G266" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
         <v>440</v>
       </c>
@@ -8514,8 +9323,11 @@
       <c r="F267" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G267" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
         <v>20</v>
       </c>
@@ -8534,8 +9346,11 @@
       <c r="F268" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G268" s="11">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
         <v>404</v>
       </c>
@@ -8554,8 +9369,11 @@
       <c r="F269" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G269" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
         <v>443</v>
       </c>
@@ -8574,8 +9392,11 @@
       <c r="F270" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G270" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
         <v>238</v>
       </c>
@@ -8594,8 +9415,11 @@
       <c r="F271" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G271" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="7" t="s">
         <v>201</v>
       </c>
@@ -8614,8 +9438,11 @@
       <c r="F272" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G272" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="7" t="s">
         <v>447</v>
       </c>
@@ -8634,8 +9461,11 @@
       <c r="F273" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G273" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -8654,8 +9484,11 @@
       <c r="F274" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G274" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="7" t="s">
         <v>270</v>
       </c>
@@ -8674,8 +9507,11 @@
       <c r="F275" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G275" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
         <v>451</v>
       </c>
@@ -8694,8 +9530,11 @@
       <c r="F276" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G276" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
         <v>453</v>
       </c>
@@ -8714,8 +9553,11 @@
       <c r="F277" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G277" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
         <v>352</v>
       </c>
@@ -8734,8 +9576,11 @@
       <c r="F278" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G278" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
         <v>165</v>
       </c>
@@ -8754,8 +9599,11 @@
       <c r="F279" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G279" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
         <v>457</v>
       </c>
@@ -8774,8 +9622,11 @@
       <c r="F280" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G280" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
         <v>459</v>
       </c>
@@ -8794,8 +9645,11 @@
       <c r="F281" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G281" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
         <v>461</v>
       </c>
@@ -8814,8 +9668,11 @@
       <c r="F282" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G282" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
         <v>462</v>
       </c>
@@ -8834,8 +9691,11 @@
       <c r="F283" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G283" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
         <v>163</v>
       </c>
@@ -8854,8 +9714,11 @@
       <c r="F284" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G284" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
         <v>465</v>
       </c>
@@ -8874,8 +9737,11 @@
       <c r="F285" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G285" s="11">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
         <v>468</v>
       </c>
@@ -8894,8 +9760,11 @@
       <c r="F286" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G286" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
         <v>451</v>
       </c>
@@ -8914,8 +9783,11 @@
       <c r="F287" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G287" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
         <v>471</v>
       </c>
@@ -8934,8 +9806,11 @@
       <c r="F288" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G288" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
         <v>473</v>
       </c>
@@ -8954,8 +9829,11 @@
       <c r="F289" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G289" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="7" t="s">
         <v>139</v>
       </c>
@@ -8974,8 +9852,11 @@
       <c r="F290" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G290" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="7" t="s">
         <v>476</v>
       </c>
@@ -8994,8 +9875,11 @@
       <c r="F291" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G291" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
         <v>478</v>
       </c>
@@ -9014,8 +9898,11 @@
       <c r="F292" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G292" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="7" t="s">
         <v>43</v>
       </c>
@@ -9034,8 +9921,11 @@
       <c r="F293" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G293" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
         <v>481</v>
       </c>
@@ -9054,8 +9944,11 @@
       <c r="F294" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G294" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
         <v>483</v>
       </c>
@@ -9074,8 +9967,11 @@
       <c r="F295" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G295" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
         <v>485</v>
       </c>
@@ -9094,8 +9990,11 @@
       <c r="F296" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G296" s="11">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
         <v>488</v>
       </c>
@@ -9114,8 +10013,11 @@
       <c r="F297" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G297" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
         <v>490</v>
       </c>
@@ -9134,8 +10036,11 @@
       <c r="F298" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G298" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="7" t="s">
         <v>492</v>
       </c>
@@ -9154,8 +10059,11 @@
       <c r="F299" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G299" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
         <v>494</v>
       </c>
@@ -9174,8 +10082,11 @@
       <c r="F300" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G300" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
         <v>496</v>
       </c>
@@ -9194,8 +10105,11 @@
       <c r="F301" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G301" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
         <v>498</v>
       </c>
@@ -9214,8 +10128,11 @@
       <c r="F302" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G302" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
         <v>500</v>
       </c>
@@ -9234,8 +10151,11 @@
       <c r="F303" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G303" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
         <v>502</v>
       </c>
@@ -9254,8 +10174,11 @@
       <c r="F304" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G304" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
         <v>504</v>
       </c>
@@ -9274,8 +10197,11 @@
       <c r="F305" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G305" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
         <v>506</v>
       </c>
@@ -9294,8 +10220,11 @@
       <c r="F306" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G306" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
         <v>141</v>
       </c>
@@ -9314,8 +10243,11 @@
       <c r="F307" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G307" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
         <v>509</v>
       </c>
@@ -9334,8 +10266,11 @@
       <c r="F308" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G308" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="7" t="s">
         <v>511</v>
       </c>
@@ -9354,8 +10289,11 @@
       <c r="F309" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G309" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
         <v>513</v>
       </c>
@@ -9374,8 +10312,11 @@
       <c r="F310" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G310" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="7" t="s">
         <v>515</v>
       </c>
@@ -9394,8 +10335,11 @@
       <c r="F311" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G311" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="7" t="s">
         <v>517</v>
       </c>
@@ -9414,8 +10358,11 @@
       <c r="F312" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G312" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="7" t="s">
         <v>519</v>
       </c>
@@ -9434,8 +10381,11 @@
       <c r="F313" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G313" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
         <v>521</v>
       </c>
@@ -9454,8 +10404,11 @@
       <c r="F314" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G314" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
         <v>523</v>
       </c>
@@ -9474,8 +10427,11 @@
       <c r="F315" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G315" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
         <v>525</v>
       </c>
@@ -9494,8 +10450,11 @@
       <c r="F316" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G316" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="7" t="s">
         <v>527</v>
       </c>
@@ -9514,8 +10473,11 @@
       <c r="F317" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G317" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="7" t="s">
         <v>529</v>
       </c>
@@ -9534,8 +10496,11 @@
       <c r="F318" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G318" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
         <v>531</v>
       </c>
@@ -9554,8 +10519,11 @@
       <c r="F319" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G319" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="7" t="s">
         <v>372</v>
       </c>
@@ -9574,8 +10542,11 @@
       <c r="F320" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G320" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="7" t="s">
         <v>185</v>
       </c>
@@ -9594,8 +10565,11 @@
       <c r="F321" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G321" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="7" t="s">
         <v>535</v>
       </c>
@@ -9614,8 +10588,11 @@
       <c r="F322" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G322" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="7" t="s">
         <v>537</v>
       </c>
@@ -9634,8 +10611,11 @@
       <c r="F323" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G323" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="7" t="s">
         <v>436</v>
       </c>
@@ -9654,8 +10634,11 @@
       <c r="F324" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G324" s="11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
         <v>121</v>
       </c>
@@ -9674,8 +10657,11 @@
       <c r="F325" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G325" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="7" t="s">
         <v>29</v>
       </c>
@@ -9694,8 +10680,11 @@
       <c r="F326" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G326" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
         <v>542</v>
       </c>
@@ -9714,8 +10703,11 @@
       <c r="F327" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G327" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
         <v>543</v>
       </c>
@@ -9734,8 +10726,11 @@
       <c r="F328" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G328" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
         <v>545</v>
       </c>
@@ -9754,8 +10749,11 @@
       <c r="F329" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G329" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
         <v>547</v>
       </c>
@@ -9774,8 +10772,11 @@
       <c r="F330" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G330" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="7" t="s">
         <v>175</v>
       </c>
@@ -9794,8 +10795,11 @@
       <c r="F331" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G331" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="7" t="s">
         <v>550</v>
       </c>
@@ -9814,8 +10818,11 @@
       <c r="F332" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G332" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="7" t="s">
         <v>552</v>
       </c>
@@ -9834,8 +10841,11 @@
       <c r="F333" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G333" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="7" t="s">
         <v>86</v>
       </c>
@@ -9854,8 +10864,11 @@
       <c r="F334" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G334" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="7" t="s">
         <v>555</v>
       </c>
@@ -9874,8 +10887,11 @@
       <c r="F335" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G335" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="7" t="s">
         <v>556</v>
       </c>
@@ -9894,8 +10910,11 @@
       <c r="F336" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G336" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
         <v>558</v>
       </c>
@@ -9914,8 +10933,11 @@
       <c r="F337" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G337" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
         <v>560</v>
       </c>
@@ -9934,8 +10956,11 @@
       <c r="F338" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G338" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
         <v>93</v>
       </c>
@@ -9954,8 +10979,11 @@
       <c r="F339" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G339" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
         <v>218</v>
       </c>
@@ -9974,8 +11002,11 @@
       <c r="F340" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G340" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="7" t="s">
         <v>29</v>
       </c>
@@ -9994,8 +11025,11 @@
       <c r="F341" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G341" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="7" t="s">
         <v>131</v>
       </c>
@@ -10014,8 +11048,11 @@
       <c r="F342" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G342" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="7" t="s">
         <v>145</v>
       </c>
@@ -10034,8 +11071,11 @@
       <c r="F343" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G343" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="7" t="s">
         <v>506</v>
       </c>
@@ -10054,8 +11094,11 @@
       <c r="F344" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G344" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="7" t="s">
         <v>298</v>
       </c>
@@ -10074,8 +11117,11 @@
       <c r="F345" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G345" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="7" t="s">
         <v>399</v>
       </c>
@@ -10094,8 +11140,11 @@
       <c r="F346" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G346" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="7" t="s">
         <v>238</v>
       </c>
@@ -10114,8 +11163,11 @@
       <c r="F347" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G347" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="7" t="s">
         <v>93</v>
       </c>
@@ -10134,8 +11186,11 @@
       <c r="F348" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G348" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="7" t="s">
         <v>564</v>
       </c>
@@ -10154,8 +11209,11 @@
       <c r="F349" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G349" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="7" t="s">
         <v>488</v>
       </c>
@@ -10174,8 +11232,11 @@
       <c r="F350" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G350" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="7" t="s">
         <v>214</v>
       </c>
@@ -10194,8 +11255,11 @@
       <c r="F351" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G351" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="7" t="s">
         <v>443</v>
       </c>
@@ -10214,8 +11278,11 @@
       <c r="F352" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G352" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="7" t="s">
         <v>29</v>
       </c>
@@ -10234,8 +11301,11 @@
       <c r="F353" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G353" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="7" t="s">
         <v>262</v>
       </c>
@@ -10254,8 +11324,11 @@
       <c r="F354" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G354" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="7" t="s">
         <v>352</v>
       </c>
@@ -10274,8 +11347,11 @@
       <c r="F355" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G355" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="7" t="s">
         <v>565</v>
       </c>
@@ -10294,8 +11370,11 @@
       <c r="F356" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G356" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="7" t="s">
         <v>567</v>
       </c>
@@ -10314,8 +11393,11 @@
       <c r="F357" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G357" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="7" t="s">
         <v>569</v>
       </c>
@@ -10334,8 +11416,11 @@
       <c r="F358" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G358" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="7" t="s">
         <v>432</v>
       </c>
@@ -10354,8 +11439,11 @@
       <c r="F359" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G359" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="7" t="s">
         <v>571</v>
       </c>
@@ -10374,8 +11462,11 @@
       <c r="F360" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G360" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="7" t="s">
         <v>573</v>
       </c>
@@ -10394,8 +11485,11 @@
       <c r="F361" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G361" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="7" t="s">
         <v>575</v>
       </c>
@@ -10414,8 +11508,11 @@
       <c r="F362" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G362" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="7" t="s">
         <v>577</v>
       </c>
@@ -10434,8 +11531,11 @@
       <c r="F363" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G363" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="7" t="s">
         <v>579</v>
       </c>
@@ -10454,8 +11554,11 @@
       <c r="F364" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G364" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="7" t="s">
         <v>581</v>
       </c>
@@ -10474,8 +11577,11 @@
       <c r="F365" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G365" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="7" t="s">
         <v>416</v>
       </c>
@@ -10494,8 +11600,11 @@
       <c r="F366" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G366" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="7" t="s">
         <v>584</v>
       </c>
@@ -10514,8 +11623,11 @@
       <c r="F367" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G367" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="7" t="s">
         <v>586</v>
       </c>
@@ -10534,8 +11646,11 @@
       <c r="F368" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G368" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="7" t="s">
         <v>588</v>
       </c>
@@ -10554,8 +11669,11 @@
       <c r="F369" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G369" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="7" t="s">
         <v>575</v>
       </c>
@@ -10574,8 +11692,11 @@
       <c r="F370" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G370" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="7" t="s">
         <v>591</v>
       </c>
@@ -10593,6 +11714,9 @@
       </c>
       <c r="F371" s="5">
         <v>0</v>
+      </c>
+      <c r="G371" s="5">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
